--- a/Spreadsheet/Current Mapping/$EI_Insert_Update_Table-9-9-19.xlsx
+++ b/Spreadsheet/Current Mapping/$EI_Insert_Update_Table-9-9-19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\repos\solid-waste-migration\Spreadsheet\Current Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55944BED-1C5A-4696-BBFC-A6138FFF69A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9508A7-5E55-465E-8D39-CA876CBC5E19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6006" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6006" uniqueCount="919">
   <si>
     <t>Insert or Update</t>
   </si>
@@ -2774,6 +2774,9 @@
   </si>
   <si>
     <t>PCSP 1481</t>
+  </si>
+  <si>
+    <t>Make it's own site</t>
   </si>
 </sst>
 </file>
@@ -2844,33 +2847,7 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2925,11 +2902,37 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2949,14 +2952,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC807A4-145D-4511-81FD-84D5EFAB8CE7}" name="Table1" displayName="Table1" ref="A1:G883" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC807A4-145D-4511-81FD-84D5EFAB8CE7}" name="Table1" displayName="Table1" ref="A1:G883" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:G883" xr:uid="{E8C378B2-2BC9-46FC-8917-D9BD76321266}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EAC6D42C-1989-4A95-B78C-D932FB507057}" name="Insert or Update" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{152CD3FC-D93E-4AD1-8994-1A5E8951E870}" name="GWM" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{06D0CD6A-A70F-4FBD-A031-3FEA9D804502}" name="MM" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{A1253734-A206-4921-96F6-5A20D19A361B}" name="LEMIR ID for Update" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{1B5E0AB1-7A4C-46E7-A7EB-792363AF2867}" name="analysis hist notes" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{EAC6D42C-1989-4A95-B78C-D932FB507057}" name="Insert or Update" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{152CD3FC-D93E-4AD1-8994-1A5E8951E870}" name="GWM" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{06D0CD6A-A70F-4FBD-A031-3FEA9D804502}" name="MM" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{A1253734-A206-4921-96F6-5A20D19A361B}" name="LEMIR ID for Update" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{1B5E0AB1-7A4C-46E7-A7EB-792363AF2867}" name="analysis hist notes" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{1F0BBE34-1B8B-43E9-9D92-3DE71A6D2F0D}" name="MainPermitNumber"/>
     <tableColumn id="7" xr3:uid="{0B9E56C1-34D1-4943-8852-4025B5387DB6}" name="AKA name"/>
   </tableColumns>
@@ -3251,22 +3254,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G883"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
-      <selection activeCell="K498" sqref="K498"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="F179" sqref="F179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
     <col min="7" max="7" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3289,7 +3292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3312,7 +3315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3335,7 +3338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3358,7 +3361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3381,7 +3384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -3404,7 +3407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -3427,7 +3430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -3473,7 +3476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -3496,7 +3499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -3519,7 +3522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -3542,7 +3545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -3588,7 +3591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -3611,7 +3614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -3634,7 +3637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -3657,7 +3660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -3680,7 +3683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -3703,7 +3706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -3726,7 +3729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -3772,7 +3775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
@@ -3795,7 +3798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -3841,7 +3844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -3864,7 +3867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
@@ -3887,7 +3890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -3910,7 +3913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
@@ -3933,7 +3936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
@@ -3956,7 +3959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
@@ -3979,7 +3982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -4002,7 +4005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
@@ -4025,7 +4028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>12</v>
       </c>
@@ -4048,7 +4051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
@@ -4071,7 +4074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -4094,7 +4097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>12</v>
       </c>
@@ -4117,7 +4120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
@@ -4140,7 +4143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
@@ -4163,7 +4166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>12</v>
       </c>
@@ -4186,7 +4189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
@@ -4209,7 +4212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -4232,7 +4235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>12</v>
       </c>
@@ -4255,7 +4258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>12</v>
       </c>
@@ -4278,7 +4281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -4301,7 +4304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>12</v>
       </c>
@@ -4324,7 +4327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>12</v>
       </c>
@@ -4347,7 +4350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
@@ -4370,7 +4373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
@@ -4393,7 +4396,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>12</v>
       </c>
@@ -4439,7 +4442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
@@ -4462,7 +4465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
@@ -4485,7 +4488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>12</v>
       </c>
@@ -4508,7 +4511,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>12</v>
       </c>
@@ -4531,7 +4534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>12</v>
       </c>
@@ -4554,7 +4557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>12</v>
       </c>
@@ -4577,7 +4580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>12</v>
       </c>
@@ -4600,7 +4603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>12</v>
       </c>
@@ -4623,7 +4626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>7</v>
       </c>
@@ -4646,7 +4649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>12</v>
       </c>
@@ -4669,7 +4672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>12</v>
       </c>
@@ -4692,7 +4695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>12</v>
       </c>
@@ -4715,7 +4718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>12</v>
       </c>
@@ -4738,7 +4741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
@@ -4761,7 +4764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>12</v>
       </c>
@@ -4784,7 +4787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>12</v>
       </c>
@@ -4807,7 +4810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>7</v>
       </c>
@@ -4830,7 +4833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>12</v>
       </c>
@@ -4853,7 +4856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>7</v>
       </c>
@@ -4876,7 +4879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>12</v>
       </c>
@@ -4899,7 +4902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>7</v>
       </c>
@@ -4922,7 +4925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>12</v>
       </c>
@@ -4945,7 +4948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
@@ -4968,7 +4971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>12</v>
       </c>
@@ -4991,7 +4994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>12</v>
       </c>
@@ -5014,7 +5017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>12</v>
       </c>
@@ -5037,7 +5040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>12</v>
       </c>
@@ -5060,7 +5063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>12</v>
       </c>
@@ -5083,7 +5086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>12</v>
       </c>
@@ -5106,7 +5109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>12</v>
       </c>
@@ -5129,7 +5132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>12</v>
       </c>
@@ -5152,7 +5155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>12</v>
       </c>
@@ -5175,7 +5178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>12</v>
       </c>
@@ -5198,7 +5201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
@@ -5221,7 +5224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>12</v>
       </c>
@@ -5244,7 +5247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>12</v>
       </c>
@@ -5267,7 +5270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>7</v>
       </c>
@@ -5290,7 +5293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>12</v>
       </c>
@@ -5313,7 +5316,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>7</v>
       </c>
@@ -5336,7 +5339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>7</v>
       </c>
@@ -5359,7 +5362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>7</v>
       </c>
@@ -5382,7 +5385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>7</v>
       </c>
@@ -5405,7 +5408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>12</v>
       </c>
@@ -5428,7 +5431,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>7</v>
       </c>
@@ -5451,7 +5454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>12</v>
       </c>
@@ -5474,7 +5477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>7</v>
       </c>
@@ -5497,7 +5500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>12</v>
       </c>
@@ -5520,7 +5523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>12</v>
       </c>
@@ -5543,7 +5546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>12</v>
       </c>
@@ -5566,7 +5569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>7</v>
       </c>
@@ -5589,7 +5592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>12</v>
       </c>
@@ -5612,7 +5615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>12</v>
       </c>
@@ -5635,7 +5638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>7</v>
       </c>
@@ -5658,7 +5661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>7</v>
       </c>
@@ -5681,7 +5684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>12</v>
       </c>
@@ -5704,7 +5707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>12</v>
       </c>
@@ -5727,7 +5730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>12</v>
       </c>
@@ -5750,7 +5753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>12</v>
       </c>
@@ -5773,7 +5776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>12</v>
       </c>
@@ -5796,7 +5799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>12</v>
       </c>
@@ -5819,7 +5822,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>12</v>
       </c>
@@ -5842,7 +5845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>12</v>
       </c>
@@ -5865,7 +5868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>7</v>
       </c>
@@ -5888,7 +5891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>12</v>
       </c>
@@ -5911,7 +5914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>12</v>
       </c>
@@ -5934,7 +5937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>12</v>
       </c>
@@ -5957,7 +5960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>12</v>
       </c>
@@ -5980,7 +5983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>12</v>
       </c>
@@ -6003,7 +6006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>12</v>
       </c>
@@ -6026,7 +6029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>7</v>
       </c>
@@ -6049,7 +6052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>12</v>
       </c>
@@ -6072,7 +6075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>12</v>
       </c>
@@ -6095,7 +6098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>12</v>
       </c>
@@ -6118,7 +6121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>12</v>
       </c>
@@ -6141,7 +6144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>12</v>
       </c>
@@ -6164,7 +6167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>7</v>
       </c>
@@ -6187,7 +6190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>7</v>
       </c>
@@ -6210,7 +6213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>12</v>
       </c>
@@ -6233,7 +6236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>7</v>
       </c>
@@ -6256,7 +6259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>12</v>
       </c>
@@ -6279,7 +6282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>12</v>
       </c>
@@ -6302,7 +6305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>12</v>
       </c>
@@ -6325,7 +6328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>7</v>
       </c>
@@ -6348,7 +6351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>12</v>
       </c>
@@ -6371,7 +6374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>12</v>
       </c>
@@ -6394,7 +6397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>12</v>
       </c>
@@ -6417,7 +6420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>12</v>
       </c>
@@ -6440,7 +6443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>12</v>
       </c>
@@ -6463,7 +6466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>12</v>
       </c>
@@ -6486,7 +6489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>12</v>
       </c>
@@ -6509,7 +6512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>12</v>
       </c>
@@ -6532,7 +6535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>12</v>
       </c>
@@ -6555,7 +6558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>12</v>
       </c>
@@ -6578,7 +6581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>12</v>
       </c>
@@ -6601,7 +6604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>12</v>
       </c>
@@ -6624,7 +6627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>12</v>
       </c>
@@ -6647,7 +6650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>7</v>
       </c>
@@ -6670,7 +6673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>7</v>
       </c>
@@ -6693,7 +6696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>12</v>
       </c>
@@ -6716,7 +6719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>12</v>
       </c>
@@ -6739,7 +6742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>12</v>
       </c>
@@ -6762,7 +6765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>12</v>
       </c>
@@ -6785,7 +6788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>12</v>
       </c>
@@ -6808,7 +6811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>12</v>
       </c>
@@ -6831,7 +6834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>12</v>
       </c>
@@ -6854,7 +6857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>7</v>
       </c>
@@ -6877,7 +6880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>7</v>
       </c>
@@ -6900,7 +6903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>7</v>
       </c>
@@ -6923,7 +6926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>12</v>
       </c>
@@ -6946,7 +6949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>7</v>
       </c>
@@ -6969,7 +6972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>12</v>
       </c>
@@ -6992,7 +6995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>12</v>
       </c>
@@ -7015,7 +7018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>7</v>
       </c>
@@ -7038,7 +7041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>12</v>
       </c>
@@ -7061,7 +7064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>12</v>
       </c>
@@ -7084,7 +7087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>7</v>
       </c>
@@ -7107,7 +7110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>12</v>
       </c>
@@ -7130,7 +7133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>12</v>
       </c>
@@ -7153,7 +7156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>7</v>
       </c>
@@ -7176,7 +7179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>12</v>
       </c>
@@ -7199,7 +7202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>12</v>
       </c>
@@ -7222,7 +7225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>7</v>
       </c>
@@ -7245,7 +7248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>12</v>
       </c>
@@ -7268,7 +7271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>12</v>
       </c>
@@ -7291,7 +7294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>7</v>
       </c>
@@ -7314,7 +7317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>12</v>
       </c>
@@ -7337,7 +7340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>12</v>
       </c>
@@ -7360,7 +7363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>12</v>
       </c>
@@ -7383,7 +7386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>12</v>
       </c>
@@ -7406,7 +7409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>7</v>
       </c>
@@ -7429,7 +7432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>7</v>
       </c>
@@ -7452,7 +7455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>7</v>
       </c>
@@ -7475,7 +7478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>12</v>
       </c>
@@ -7498,7 +7501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>7</v>
       </c>
@@ -7521,7 +7524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>12</v>
       </c>
@@ -7544,7 +7547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>12</v>
       </c>
@@ -7567,7 +7570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>7</v>
       </c>
@@ -7590,7 +7593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>12</v>
       </c>
@@ -7613,7 +7616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>12</v>
       </c>
@@ -7636,7 +7639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>12</v>
       </c>
@@ -7659,7 +7662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>7</v>
       </c>
@@ -7682,7 +7685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>7</v>
       </c>
@@ -7705,7 +7708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>12</v>
       </c>
@@ -7728,7 +7731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>12</v>
       </c>
@@ -7751,7 +7754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>12</v>
       </c>
@@ -7774,7 +7777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>12</v>
       </c>
@@ -7797,7 +7800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>12</v>
       </c>
@@ -7820,7 +7823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>12</v>
       </c>
@@ -7843,7 +7846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>12</v>
       </c>
@@ -7866,7 +7869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>12</v>
       </c>
@@ -7889,7 +7892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>12</v>
       </c>
@@ -7912,7 +7915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>7</v>
       </c>
@@ -7935,7 +7938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>12</v>
       </c>
@@ -7958,7 +7961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>12</v>
       </c>
@@ -7981,7 +7984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>12</v>
       </c>
@@ -8004,7 +8007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>12</v>
       </c>
@@ -8027,7 +8030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>12</v>
       </c>
@@ -8050,7 +8053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>12</v>
       </c>
@@ -8073,7 +8076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>7</v>
       </c>
@@ -8096,7 +8099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>7</v>
       </c>
@@ -8119,7 +8122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>7</v>
       </c>
@@ -8142,7 +8145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>12</v>
       </c>
@@ -8165,7 +8168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>12</v>
       </c>
@@ -8188,7 +8191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>12</v>
       </c>
@@ -8211,7 +8214,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>12</v>
       </c>
@@ -8234,7 +8237,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>7</v>
       </c>
@@ -8257,7 +8260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>12</v>
       </c>
@@ -8280,7 +8283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>12</v>
       </c>
@@ -8303,7 +8306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>12</v>
       </c>
@@ -8326,7 +8329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>12</v>
       </c>
@@ -8349,7 +8352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>12</v>
       </c>
@@ -8372,7 +8375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>7</v>
       </c>
@@ -8395,7 +8398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>7</v>
       </c>
@@ -8418,7 +8421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>7</v>
       </c>
@@ -8441,7 +8444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>12</v>
       </c>
@@ -8464,7 +8467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>7</v>
       </c>
@@ -8487,7 +8490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>12</v>
       </c>
@@ -8510,7 +8513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>12</v>
       </c>
@@ -8533,7 +8536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>12</v>
       </c>
@@ -8556,7 +8559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>12</v>
       </c>
@@ -8579,7 +8582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>12</v>
       </c>
@@ -8602,7 +8605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>12</v>
       </c>
@@ -8625,7 +8628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>7</v>
       </c>
@@ -8648,7 +8651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>12</v>
       </c>
@@ -8671,7 +8674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>12</v>
       </c>
@@ -8694,7 +8697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>12</v>
       </c>
@@ -8717,7 +8720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>12</v>
       </c>
@@ -8740,7 +8743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>12</v>
       </c>
@@ -8763,7 +8766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>12</v>
       </c>
@@ -8786,7 +8789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>12</v>
       </c>
@@ -8809,7 +8812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>7</v>
       </c>
@@ -8832,7 +8835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>7</v>
       </c>
@@ -8855,7 +8858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>12</v>
       </c>
@@ -8878,7 +8881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>12</v>
       </c>
@@ -8901,7 +8904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>12</v>
       </c>
@@ -8924,7 +8927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>7</v>
       </c>
@@ -8947,7 +8950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>12</v>
       </c>
@@ -8970,7 +8973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>12</v>
       </c>
@@ -8993,7 +8996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>12</v>
       </c>
@@ -9016,7 +9019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>7</v>
       </c>
@@ -9039,7 +9042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>7</v>
       </c>
@@ -9062,7 +9065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>12</v>
       </c>
@@ -9085,7 +9088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>12</v>
       </c>
@@ -9108,7 +9111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>12</v>
       </c>
@@ -9131,7 +9134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>12</v>
       </c>
@@ -9154,7 +9157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>12</v>
       </c>
@@ -9177,7 +9180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>12</v>
       </c>
@@ -9200,7 +9203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>12</v>
       </c>
@@ -9223,7 +9226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>7</v>
       </c>
@@ -9246,7 +9249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>12</v>
       </c>
@@ -9269,7 +9272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>7</v>
       </c>
@@ -9292,7 +9295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>7</v>
       </c>
@@ -9315,7 +9318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>12</v>
       </c>
@@ -9338,7 +9341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>12</v>
       </c>
@@ -9361,7 +9364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>12</v>
       </c>
@@ -9384,7 +9387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>12</v>
       </c>
@@ -9407,7 +9410,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>12</v>
       </c>
@@ -9430,7 +9433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>12</v>
       </c>
@@ -9453,7 +9456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>12</v>
       </c>
@@ -9476,7 +9479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>12</v>
       </c>
@@ -9499,7 +9502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>7</v>
       </c>
@@ -9522,7 +9525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>12</v>
       </c>
@@ -9545,7 +9548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>12</v>
       </c>
@@ -9568,7 +9571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>7</v>
       </c>
@@ -9591,7 +9594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>12</v>
       </c>
@@ -9614,7 +9617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>7</v>
       </c>
@@ -9637,7 +9640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>12</v>
       </c>
@@ -9660,7 +9663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>12</v>
       </c>
@@ -9683,7 +9686,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>12</v>
       </c>
@@ -9706,7 +9709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>12</v>
       </c>
@@ -9729,7 +9732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>12</v>
       </c>
@@ -9752,7 +9755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>12</v>
       </c>
@@ -9775,7 +9778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>12</v>
       </c>
@@ -9798,7 +9801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>12</v>
       </c>
@@ -9821,7 +9824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>7</v>
       </c>
@@ -9844,7 +9847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>12</v>
       </c>
@@ -9867,7 +9870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>12</v>
       </c>
@@ -9890,7 +9893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>7</v>
       </c>
@@ -9913,7 +9916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>12</v>
       </c>
@@ -9936,7 +9939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>12</v>
       </c>
@@ -9959,7 +9962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>7</v>
       </c>
@@ -9982,7 +9985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>7</v>
       </c>
@@ -10005,7 +10008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>7</v>
       </c>
@@ -10028,7 +10031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>12</v>
       </c>
@@ -10051,7 +10054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>12</v>
       </c>
@@ -10074,7 +10077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>12</v>
       </c>
@@ -10097,7 +10100,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>7</v>
       </c>
@@ -10120,7 +10123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>12</v>
       </c>
@@ -10143,7 +10146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>7</v>
       </c>
@@ -10166,7 +10169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>7</v>
       </c>
@@ -10189,7 +10192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
         <v>7</v>
       </c>
@@ -10212,7 +10215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>7</v>
       </c>
@@ -10235,7 +10238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>12</v>
       </c>
@@ -10258,7 +10261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>12</v>
       </c>
@@ -10281,7 +10284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>12</v>
       </c>
@@ -10304,7 +10307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>12</v>
       </c>
@@ -10327,7 +10330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>12</v>
       </c>
@@ -10350,7 +10353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>12</v>
       </c>
@@ -10373,7 +10376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>12</v>
       </c>
@@ -10396,7 +10399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>12</v>
       </c>
@@ -10419,7 +10422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>7</v>
       </c>
@@ -10442,7 +10445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>12</v>
       </c>
@@ -10465,7 +10468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>12</v>
       </c>
@@ -10488,7 +10491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>7</v>
       </c>
@@ -10511,7 +10514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>12</v>
       </c>
@@ -10534,7 +10537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>7</v>
       </c>
@@ -10557,7 +10560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>12</v>
       </c>
@@ -10580,7 +10583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>12</v>
       </c>
@@ -10603,7 +10606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>12</v>
       </c>
@@ -10626,7 +10629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>7</v>
       </c>
@@ -10649,7 +10652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>12</v>
       </c>
@@ -10672,7 +10675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>12</v>
       </c>
@@ -10695,7 +10698,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>12</v>
       </c>
@@ -10718,7 +10721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>12</v>
       </c>
@@ -10741,7 +10744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>7</v>
       </c>
@@ -10764,7 +10767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>12</v>
       </c>
@@ -10787,7 +10790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>12</v>
       </c>
@@ -10810,7 +10813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>12</v>
       </c>
@@ -10833,7 +10836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>12</v>
       </c>
@@ -10856,7 +10859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>12</v>
       </c>
@@ -10879,7 +10882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>12</v>
       </c>
@@ -10902,7 +10905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>12</v>
       </c>
@@ -10925,7 +10928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>12</v>
       </c>
@@ -10948,7 +10951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>7</v>
       </c>
@@ -10971,7 +10974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>12</v>
       </c>
@@ -10994,7 +10997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>7</v>
       </c>
@@ -11017,7 +11020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>12</v>
       </c>
@@ -11040,7 +11043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>7</v>
       </c>
@@ -11063,7 +11066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>12</v>
       </c>
@@ -11086,7 +11089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>12</v>
       </c>
@@ -11109,7 +11112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>12</v>
       </c>
@@ -11132,7 +11135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>12</v>
       </c>
@@ -11155,7 +11158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>12</v>
       </c>
@@ -11178,7 +11181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>7</v>
       </c>
@@ -11201,7 +11204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>7</v>
       </c>
@@ -11224,7 +11227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>7</v>
       </c>
@@ -11247,7 +11250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>7</v>
       </c>
@@ -11270,7 +11273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>7</v>
       </c>
@@ -11293,7 +11296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>12</v>
       </c>
@@ -11316,7 +11319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>7</v>
       </c>
@@ -11339,7 +11342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>7</v>
       </c>
@@ -11362,7 +11365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>12</v>
       </c>
@@ -11385,7 +11388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>12</v>
       </c>
@@ -11408,7 +11411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>12</v>
       </c>
@@ -11431,7 +11434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>12</v>
       </c>
@@ -11454,7 +11457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>12</v>
       </c>
@@ -11477,7 +11480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>12</v>
       </c>
@@ -11500,7 +11503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>12</v>
       </c>
@@ -11523,7 +11526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>12</v>
       </c>
@@ -11546,7 +11549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>12</v>
       </c>
@@ -11569,7 +11572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>12</v>
       </c>
@@ -11592,7 +11595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>12</v>
       </c>
@@ -11615,7 +11618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>7</v>
       </c>
@@ -11638,7 +11641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>12</v>
       </c>
@@ -11661,7 +11664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>7</v>
       </c>
@@ -11684,7 +11687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>7</v>
       </c>
@@ -11707,7 +11710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>12</v>
       </c>
@@ -11730,7 +11733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>7</v>
       </c>
@@ -11753,7 +11756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>12</v>
       </c>
@@ -11776,7 +11779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>12</v>
       </c>
@@ -11799,7 +11802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>7</v>
       </c>
@@ -11822,7 +11825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>12</v>
       </c>
@@ -11845,7 +11848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>12</v>
       </c>
@@ -11868,7 +11871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>7</v>
       </c>
@@ -11891,7 +11894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>7</v>
       </c>
@@ -11914,7 +11917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>12</v>
       </c>
@@ -11937,7 +11940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>12</v>
       </c>
@@ -11960,7 +11963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>12</v>
       </c>
@@ -11983,7 +11986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>12</v>
       </c>
@@ -12006,7 +12009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>12</v>
       </c>
@@ -12029,7 +12032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>12</v>
       </c>
@@ -12052,7 +12055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>7</v>
       </c>
@@ -12075,7 +12078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>12</v>
       </c>
@@ -12098,7 +12101,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>7</v>
       </c>
@@ -12121,7 +12124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>12</v>
       </c>
@@ -12144,7 +12147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>7</v>
       </c>
@@ -12167,7 +12170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>12</v>
       </c>
@@ -12190,7 +12193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>12</v>
       </c>
@@ -12213,7 +12216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>7</v>
       </c>
@@ -12236,7 +12239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>12</v>
       </c>
@@ -12259,7 +12262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>12</v>
       </c>
@@ -12282,7 +12285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>7</v>
       </c>
@@ -12305,7 +12308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>12</v>
       </c>
@@ -12328,7 +12331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>12</v>
       </c>
@@ -12351,7 +12354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>7</v>
       </c>
@@ -12374,7 +12377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>12</v>
       </c>
@@ -12397,7 +12400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>7</v>
       </c>
@@ -12420,7 +12423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>7</v>
       </c>
@@ -12443,7 +12446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>12</v>
       </c>
@@ -12466,7 +12469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>7</v>
       </c>
@@ -12489,7 +12492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
         <v>7</v>
       </c>
@@ -12512,7 +12515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>12</v>
       </c>
@@ -12535,7 +12538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>12</v>
       </c>
@@ -12558,7 +12561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>12</v>
       </c>
@@ -12581,7 +12584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
         <v>12</v>
       </c>
@@ -12604,7 +12607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>12</v>
       </c>
@@ -12627,7 +12630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
         <v>12</v>
       </c>
@@ -12650,7 +12653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
         <v>12</v>
       </c>
@@ -12673,7 +12676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
         <v>12</v>
       </c>
@@ -12696,7 +12699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
         <v>12</v>
       </c>
@@ -12719,7 +12722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
         <v>12</v>
       </c>
@@ -12742,7 +12745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
         <v>7</v>
       </c>
@@ -12765,7 +12768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
         <v>7</v>
       </c>
@@ -12788,7 +12791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
         <v>12</v>
       </c>
@@ -12811,7 +12814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
         <v>12</v>
       </c>
@@ -12834,7 +12837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
         <v>7</v>
       </c>
@@ -12857,7 +12860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
         <v>7</v>
       </c>
@@ -12880,7 +12883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
         <v>12</v>
       </c>
@@ -12903,7 +12906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
         <v>12</v>
       </c>
@@ -12926,7 +12929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
         <v>12</v>
       </c>
@@ -12949,7 +12952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
         <v>7</v>
       </c>
@@ -12972,7 +12975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
         <v>12</v>
       </c>
@@ -12995,7 +12998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
         <v>7</v>
       </c>
@@ -13018,7 +13021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
         <v>12</v>
       </c>
@@ -13041,7 +13044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
         <v>12</v>
       </c>
@@ -13064,7 +13067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>7</v>
       </c>
@@ -13087,7 +13090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
         <v>12</v>
       </c>
@@ -13110,7 +13113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
         <v>12</v>
       </c>
@@ -13133,7 +13136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
         <v>12</v>
       </c>
@@ -13156,7 +13159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
         <v>12</v>
       </c>
@@ -13179,7 +13182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
         <v>12</v>
       </c>
@@ -13202,7 +13205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
         <v>12</v>
       </c>
@@ -13225,7 +13228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
         <v>12</v>
       </c>
@@ -13248,7 +13251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
         <v>7</v>
       </c>
@@ -13271,7 +13274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
         <v>12</v>
       </c>
@@ -13294,7 +13297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
         <v>7</v>
       </c>
@@ -13317,7 +13320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
         <v>7</v>
       </c>
@@ -13340,7 +13343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
         <v>12</v>
       </c>
@@ -13363,7 +13366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
         <v>12</v>
       </c>
@@ -13386,7 +13389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
         <v>12</v>
       </c>
@@ -13409,7 +13412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
         <v>12</v>
       </c>
@@ -13432,7 +13435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
         <v>7</v>
       </c>
@@ -13455,7 +13458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
         <v>7</v>
       </c>
@@ -13478,7 +13481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
         <v>12</v>
       </c>
@@ -13501,7 +13504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
         <v>12</v>
       </c>
@@ -13524,7 +13527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
         <v>12</v>
       </c>
@@ -13547,7 +13550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
         <v>7</v>
       </c>
@@ -13570,7 +13573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
         <v>12</v>
       </c>
@@ -13593,7 +13596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
         <v>12</v>
       </c>
@@ -13616,7 +13619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
         <v>12</v>
       </c>
@@ -13639,7 +13642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
         <v>12</v>
       </c>
@@ -13662,7 +13665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
         <v>12</v>
       </c>
@@ -13685,7 +13688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
         <v>12</v>
       </c>
@@ -13708,7 +13711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
         <v>7</v>
       </c>
@@ -13731,7 +13734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
         <v>7</v>
       </c>
@@ -13754,7 +13757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
         <v>12</v>
       </c>
@@ -13777,7 +13780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
         <v>12</v>
       </c>
@@ -13800,7 +13803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
         <v>12</v>
       </c>
@@ -13823,7 +13826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
         <v>7</v>
       </c>
@@ -13846,7 +13849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
         <v>12</v>
       </c>
@@ -13869,7 +13872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
         <v>12</v>
       </c>
@@ -13892,7 +13895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
         <v>12</v>
       </c>
@@ -13915,7 +13918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
         <v>7</v>
       </c>
@@ -13938,7 +13941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
         <v>12</v>
       </c>
@@ -13961,7 +13964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
         <v>12</v>
       </c>
@@ -13984,7 +13987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
         <v>7</v>
       </c>
@@ -14007,7 +14010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
         <v>12</v>
       </c>
@@ -14030,7 +14033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
         <v>12</v>
       </c>
@@ -14053,7 +14056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
         <v>12</v>
       </c>
@@ -14076,7 +14079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
         <v>12</v>
       </c>
@@ -14099,7 +14102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
         <v>12</v>
       </c>
@@ -14122,7 +14125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
         <v>7</v>
       </c>
@@ -14145,7 +14148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
         <v>7</v>
       </c>
@@ -14168,7 +14171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
         <v>12</v>
       </c>
@@ -14191,7 +14194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
         <v>7</v>
       </c>
@@ -14214,7 +14217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
         <v>7</v>
       </c>
@@ -14237,7 +14240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
         <v>7</v>
       </c>
@@ -14260,7 +14263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
         <v>7</v>
       </c>
@@ -14283,7 +14286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
         <v>12</v>
       </c>
@@ -14306,7 +14309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" s="2" t="s">
         <v>12</v>
       </c>
@@ -14329,7 +14332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
         <v>12</v>
       </c>
@@ -14352,7 +14355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" s="2" t="s">
         <v>12</v>
       </c>
@@ -14375,7 +14378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
         <v>12</v>
       </c>
@@ -14398,7 +14401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" s="2" t="s">
         <v>12</v>
       </c>
@@ -14421,7 +14424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
         <v>12</v>
       </c>
@@ -14444,7 +14447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" s="2" t="s">
         <v>7</v>
       </c>
@@ -14467,7 +14470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
         <v>7</v>
       </c>
@@ -14490,7 +14493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
         <v>7</v>
       </c>
@@ -14513,7 +14516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" s="2" t="s">
         <v>12</v>
       </c>
@@ -14536,7 +14539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
         <v>7</v>
       </c>
@@ -14559,7 +14562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
         <v>12</v>
       </c>
@@ -14582,7 +14585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
         <v>12</v>
       </c>
@@ -14605,7 +14608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="2" t="s">
         <v>7</v>
       </c>
@@ -14628,7 +14631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" s="2" t="s">
         <v>12</v>
       </c>
@@ -14651,7 +14654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
         <v>7</v>
       </c>
@@ -14674,7 +14677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
         <v>12</v>
       </c>
@@ -14697,7 +14700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
         <v>12</v>
       </c>
@@ -14720,7 +14723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" s="2" t="s">
         <v>12</v>
       </c>
@@ -14743,7 +14746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
         <v>12</v>
       </c>
@@ -14766,7 +14769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" s="2" t="s">
         <v>7</v>
       </c>
@@ -14789,7 +14792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" s="2" t="s">
         <v>7</v>
       </c>
@@ -14812,7 +14815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" s="2" t="s">
         <v>12</v>
       </c>
@@ -14835,7 +14838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" s="2" t="s">
         <v>12</v>
       </c>
@@ -14858,7 +14861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" s="2" t="s">
         <v>12</v>
       </c>
@@ -14881,7 +14884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" s="2" t="s">
         <v>12</v>
       </c>
@@ -14904,7 +14907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" s="2" t="s">
         <v>12</v>
       </c>
@@ -14927,7 +14930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" s="2" t="s">
         <v>12</v>
       </c>
@@ -14950,7 +14953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" s="4" t="s">
         <v>12</v>
       </c>
@@ -14973,7 +14976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
         <v>12</v>
       </c>
@@ -14996,7 +14999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
         <v>12</v>
       </c>
@@ -15019,7 +15022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" s="4" t="s">
         <v>7</v>
       </c>
@@ -15042,7 +15045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" s="2" t="s">
         <v>12</v>
       </c>
@@ -15065,7 +15068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" s="2" t="s">
         <v>12</v>
       </c>
@@ -15088,7 +15091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" s="2" t="s">
         <v>12</v>
       </c>
@@ -15111,7 +15114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" s="2" t="s">
         <v>12</v>
       </c>
@@ -15134,7 +15137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" s="2" t="s">
         <v>12</v>
       </c>
@@ -15157,7 +15160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" s="2" t="s">
         <v>12</v>
       </c>
@@ -15180,7 +15183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" s="2" t="s">
         <v>8</v>
       </c>
@@ -15203,7 +15206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" s="2" t="s">
         <v>12</v>
       </c>
@@ -15226,7 +15229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" s="2" t="s">
         <v>7</v>
       </c>
@@ -15249,7 +15252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522" s="2" t="s">
         <v>12</v>
       </c>
@@ -15272,7 +15275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523" s="2" t="s">
         <v>12</v>
       </c>
@@ -15295,7 +15298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524" s="2" t="s">
         <v>7</v>
       </c>
@@ -15318,7 +15321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525" s="2" t="s">
         <v>12</v>
       </c>
@@ -15341,7 +15344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526" s="2" t="s">
         <v>12</v>
       </c>
@@ -15364,7 +15367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527" s="2" t="s">
         <v>12</v>
       </c>
@@ -15387,7 +15390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528" s="2" t="s">
         <v>12</v>
       </c>
@@ -15410,7 +15413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529" s="2" t="s">
         <v>12</v>
       </c>
@@ -15433,7 +15436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530" s="2" t="s">
         <v>12</v>
       </c>
@@ -15456,7 +15459,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531" s="2" t="s">
         <v>12</v>
       </c>
@@ -15479,7 +15482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532" s="2" t="s">
         <v>7</v>
       </c>
@@ -15502,7 +15505,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533" s="2" t="s">
         <v>12</v>
       </c>
@@ -15525,7 +15528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A534" s="2" t="s">
         <v>12</v>
       </c>
@@ -15548,7 +15551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A535" s="2" t="s">
         <v>12</v>
       </c>
@@ -15571,7 +15574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A536" s="2" t="s">
         <v>7</v>
       </c>
@@ -15594,7 +15597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A537" s="2" t="s">
         <v>12</v>
       </c>
@@ -15617,7 +15620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A538" s="2" t="s">
         <v>12</v>
       </c>
@@ -15640,7 +15643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A539" s="2" t="s">
         <v>12</v>
       </c>
@@ -15663,7 +15666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A540" s="2" t="s">
         <v>12</v>
       </c>
@@ -15686,7 +15689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A541" s="2" t="s">
         <v>7</v>
       </c>
@@ -15709,7 +15712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A542" s="2" t="s">
         <v>7</v>
       </c>
@@ -15732,7 +15735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A543" s="2" t="s">
         <v>7</v>
       </c>
@@ -15755,7 +15758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A544" s="2" t="s">
         <v>12</v>
       </c>
@@ -15778,7 +15781,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545" s="2" t="s">
         <v>7</v>
       </c>
@@ -15801,7 +15804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546" s="2" t="s">
         <v>12</v>
       </c>
@@ -15824,7 +15827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A547" s="2" t="s">
         <v>7</v>
       </c>
@@ -15847,7 +15850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A548" s="2" t="s">
         <v>7</v>
       </c>
@@ -15870,7 +15873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A549" s="2" t="s">
         <v>7</v>
       </c>
@@ -15893,7 +15896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A550" s="2" t="s">
         <v>12</v>
       </c>
@@ -15916,7 +15919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A551" s="2" t="s">
         <v>12</v>
       </c>
@@ -15939,7 +15942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A552" s="2" t="s">
         <v>12</v>
       </c>
@@ -15962,7 +15965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A553" s="2" t="s">
         <v>7</v>
       </c>
@@ -15985,7 +15988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A554" s="2" t="s">
         <v>7</v>
       </c>
@@ -16008,7 +16011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A555" s="2" t="s">
         <v>7</v>
       </c>
@@ -16031,7 +16034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A556" s="2" t="s">
         <v>12</v>
       </c>
@@ -16054,7 +16057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A557" s="2" t="s">
         <v>12</v>
       </c>
@@ -16077,7 +16080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A558" s="2" t="s">
         <v>7</v>
       </c>
@@ -16100,7 +16103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A559" s="2" t="s">
         <v>12</v>
       </c>
@@ -16123,7 +16126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A560" s="2" t="s">
         <v>12</v>
       </c>
@@ -16146,7 +16149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A561" s="2" t="s">
         <v>7</v>
       </c>
@@ -16169,7 +16172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A562" s="2" t="s">
         <v>12</v>
       </c>
@@ -16192,7 +16195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A563" s="2" t="s">
         <v>12</v>
       </c>
@@ -16215,7 +16218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A564" s="2" t="s">
         <v>12</v>
       </c>
@@ -16238,7 +16241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A565" s="2" t="s">
         <v>12</v>
       </c>
@@ -16261,7 +16264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A566" s="2" t="s">
         <v>12</v>
       </c>
@@ -16284,7 +16287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A567" s="2" t="s">
         <v>12</v>
       </c>
@@ -16307,7 +16310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A568" s="2" t="s">
         <v>12</v>
       </c>
@@ -16330,7 +16333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A569" s="2" t="s">
         <v>12</v>
       </c>
@@ -16353,7 +16356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A570" s="2" t="s">
         <v>12</v>
       </c>
@@ -16376,7 +16379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A571" s="2" t="s">
         <v>12</v>
       </c>
@@ -16399,7 +16402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A572" s="2" t="s">
         <v>7</v>
       </c>
@@ -16422,7 +16425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A573" s="2" t="s">
         <v>12</v>
       </c>
@@ -16445,7 +16448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A574" s="2" t="s">
         <v>7</v>
       </c>
@@ -16468,7 +16471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A575" s="2" t="s">
         <v>12</v>
       </c>
@@ -16491,7 +16494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A576" s="2" t="s">
         <v>12</v>
       </c>
@@ -16514,7 +16517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A577" s="2" t="s">
         <v>12</v>
       </c>
@@ -16537,7 +16540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A578" s="2" t="s">
         <v>12</v>
       </c>
@@ -16560,7 +16563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A579" s="2" t="s">
         <v>7</v>
       </c>
@@ -16583,7 +16586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A580" s="2" t="s">
         <v>12</v>
       </c>
@@ -16606,7 +16609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A581" s="2" t="s">
         <v>7</v>
       </c>
@@ -16629,7 +16632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A582" s="2" t="s">
         <v>12</v>
       </c>
@@ -16652,7 +16655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A583" s="2" t="s">
         <v>12</v>
       </c>
@@ -16675,7 +16678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A584" s="2" t="s">
         <v>12</v>
       </c>
@@ -16698,7 +16701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A585" s="2" t="s">
         <v>12</v>
       </c>
@@ -16721,7 +16724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A586" s="2" t="s">
         <v>12</v>
       </c>
@@ -16744,7 +16747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A587" s="2" t="s">
         <v>12</v>
       </c>
@@ -16767,7 +16770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A588" s="2" t="s">
         <v>12</v>
       </c>
@@ -16790,7 +16793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A589" s="2" t="s">
         <v>7</v>
       </c>
@@ -16813,7 +16816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A590" s="2" t="s">
         <v>12</v>
       </c>
@@ -16836,7 +16839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A591" s="2" t="s">
         <v>12</v>
       </c>
@@ -16859,7 +16862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A592" s="2" t="s">
         <v>12</v>
       </c>
@@ -16882,7 +16885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A593" s="2" t="s">
         <v>12</v>
       </c>
@@ -16905,7 +16908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A594" s="2" t="s">
         <v>7</v>
       </c>
@@ -16928,7 +16931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A595" s="2" t="s">
         <v>12</v>
       </c>
@@ -16951,7 +16954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A596" s="2" t="s">
         <v>12</v>
       </c>
@@ -16974,7 +16977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A597" s="2" t="s">
         <v>7</v>
       </c>
@@ -16997,7 +17000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A598" s="2" t="s">
         <v>7</v>
       </c>
@@ -17020,7 +17023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A599" s="2" t="s">
         <v>12</v>
       </c>
@@ -17043,7 +17046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A600" s="2" t="s">
         <v>12</v>
       </c>
@@ -17066,7 +17069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A601" s="2" t="s">
         <v>12</v>
       </c>
@@ -17089,7 +17092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A602" s="2" t="s">
         <v>7</v>
       </c>
@@ -17112,7 +17115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A603" s="2" t="s">
         <v>7</v>
       </c>
@@ -17135,7 +17138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A604" s="2" t="s">
         <v>7</v>
       </c>
@@ -17158,7 +17161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A605" s="2" t="s">
         <v>8</v>
       </c>
@@ -17181,7 +17184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A606" s="2" t="s">
         <v>12</v>
       </c>
@@ -17204,7 +17207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A607" s="2" t="s">
         <v>12</v>
       </c>
@@ -17227,7 +17230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A608" s="2" t="s">
         <v>12</v>
       </c>
@@ -17250,7 +17253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A609" s="2" t="s">
         <v>12</v>
       </c>
@@ -17273,7 +17276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A610" s="2" t="s">
         <v>12</v>
       </c>
@@ -17296,7 +17299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A611" s="2" t="s">
         <v>7</v>
       </c>
@@ -17319,7 +17322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A612" s="2" t="s">
         <v>12</v>
       </c>
@@ -17342,7 +17345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A613" s="2" t="s">
         <v>12</v>
       </c>
@@ -17365,7 +17368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A614" s="2" t="s">
         <v>7</v>
       </c>
@@ -17388,7 +17391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A615" s="2" t="s">
         <v>12</v>
       </c>
@@ -17411,7 +17414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A616" s="2" t="s">
         <v>12</v>
       </c>
@@ -17434,7 +17437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A617" s="2" t="s">
         <v>12</v>
       </c>
@@ -17457,7 +17460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A618" s="2" t="s">
         <v>12</v>
       </c>
@@ -17480,7 +17483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A619" s="2" t="s">
         <v>7</v>
       </c>
@@ -17503,7 +17506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A620" s="2" t="s">
         <v>12</v>
       </c>
@@ -17526,7 +17529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A621" s="2" t="s">
         <v>7</v>
       </c>
@@ -17549,7 +17552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A622" s="2" t="s">
         <v>12</v>
       </c>
@@ -17572,7 +17575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A623" s="2" t="s">
         <v>12</v>
       </c>
@@ -17595,7 +17598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A624" s="2" t="s">
         <v>12</v>
       </c>
@@ -17618,7 +17621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A625" s="2" t="s">
         <v>12</v>
       </c>
@@ -17641,7 +17644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A626" s="2" t="s">
         <v>12</v>
       </c>
@@ -17664,7 +17667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A627" s="2" t="s">
         <v>12</v>
       </c>
@@ -17687,7 +17690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A628" s="2" t="s">
         <v>12</v>
       </c>
@@ -17710,7 +17713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A629" s="2" t="s">
         <v>12</v>
       </c>
@@ -17733,7 +17736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A630" s="2" t="s">
         <v>12</v>
       </c>
@@ -17756,7 +17759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A631" s="2" t="s">
         <v>12</v>
       </c>
@@ -17779,7 +17782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A632" s="2" t="s">
         <v>7</v>
       </c>
@@ -17802,7 +17805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A633" s="2" t="s">
         <v>7</v>
       </c>
@@ -17825,7 +17828,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A634" s="2" t="s">
         <v>7</v>
       </c>
@@ -17848,7 +17851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A635" s="2" t="s">
         <v>7</v>
       </c>
@@ -17871,7 +17874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A636" s="2" t="s">
         <v>12</v>
       </c>
@@ -17894,7 +17897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A637" s="2" t="s">
         <v>7</v>
       </c>
@@ -17917,7 +17920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A638" s="2" t="s">
         <v>12</v>
       </c>
@@ -17940,7 +17943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A639" s="2" t="s">
         <v>12</v>
       </c>
@@ -17963,7 +17966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A640" s="2" t="s">
         <v>12</v>
       </c>
@@ -17986,7 +17989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A641" s="2" t="s">
         <v>7</v>
       </c>
@@ -18009,7 +18012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A642" s="2" t="s">
         <v>12</v>
       </c>
@@ -18032,7 +18035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A643" s="2" t="s">
         <v>7</v>
       </c>
@@ -18055,7 +18058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A644" s="2" t="s">
         <v>7</v>
       </c>
@@ -18075,10 +18078,10 @@
         <v>675</v>
       </c>
       <c r="G644" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A645" s="2" t="s">
         <v>7</v>
       </c>
@@ -18101,7 +18104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A646" s="2" t="s">
         <v>12</v>
       </c>
@@ -18124,7 +18127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A647" s="2" t="s">
         <v>7</v>
       </c>
@@ -18147,7 +18150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A648" s="2" t="s">
         <v>12</v>
       </c>
@@ -18170,7 +18173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A649" s="2" t="s">
         <v>7</v>
       </c>
@@ -18193,7 +18196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A650" s="2" t="s">
         <v>12</v>
       </c>
@@ -18216,7 +18219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A651" s="2" t="s">
         <v>12</v>
       </c>
@@ -18239,7 +18242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A652" s="2" t="s">
         <v>12</v>
       </c>
@@ -18262,7 +18265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A653" s="2" t="s">
         <v>12</v>
       </c>
@@ -18285,7 +18288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A654" s="2" t="s">
         <v>7</v>
       </c>
@@ -18308,7 +18311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A655" s="2" t="s">
         <v>7</v>
       </c>
@@ -18331,7 +18334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A656" s="2" t="s">
         <v>7</v>
       </c>
@@ -18354,7 +18357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A657" s="2" t="s">
         <v>12</v>
       </c>
@@ -18377,7 +18380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A658" s="2" t="s">
         <v>7</v>
       </c>
@@ -18400,7 +18403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A659" s="2" t="s">
         <v>12</v>
       </c>
@@ -18423,7 +18426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A660" s="2" t="s">
         <v>12</v>
       </c>
@@ -18446,7 +18449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A661" s="2" t="s">
         <v>7</v>
       </c>
@@ -18469,7 +18472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A662" s="2" t="s">
         <v>7</v>
       </c>
@@ -18492,7 +18495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A663" s="2" t="s">
         <v>12</v>
       </c>
@@ -18515,7 +18518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A664" s="2" t="s">
         <v>12</v>
       </c>
@@ -18538,7 +18541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A665" s="2" t="s">
         <v>7</v>
       </c>
@@ -18561,7 +18564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A666" s="2" t="s">
         <v>12</v>
       </c>
@@ -18584,7 +18587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A667" s="2" t="s">
         <v>12</v>
       </c>
@@ -18607,7 +18610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A668" s="2" t="s">
         <v>12</v>
       </c>
@@ -18630,7 +18633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A669" s="2" t="s">
         <v>12</v>
       </c>
@@ -18653,7 +18656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A670" s="2" t="s">
         <v>7</v>
       </c>
@@ -18676,7 +18679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A671" s="2" t="s">
         <v>7</v>
       </c>
@@ -18699,7 +18702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A672" s="2" t="s">
         <v>12</v>
       </c>
@@ -18722,7 +18725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A673" s="2" t="s">
         <v>12</v>
       </c>
@@ -18745,7 +18748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A674" s="2" t="s">
         <v>12</v>
       </c>
@@ -18768,7 +18771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A675" s="2" t="s">
         <v>12</v>
       </c>
@@ -18791,7 +18794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A676" s="2" t="s">
         <v>7</v>
       </c>
@@ -18814,7 +18817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A677" s="2" t="s">
         <v>12</v>
       </c>
@@ -18837,7 +18840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A678" s="2" t="s">
         <v>12</v>
       </c>
@@ -18860,7 +18863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A679" s="2" t="s">
         <v>12</v>
       </c>
@@ -18883,7 +18886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A680" s="2" t="s">
         <v>12</v>
       </c>
@@ -18906,7 +18909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A681" s="2" t="s">
         <v>7</v>
       </c>
@@ -18929,7 +18932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A682" s="2" t="s">
         <v>7</v>
       </c>
@@ -18952,7 +18955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A683" s="2" t="s">
         <v>12</v>
       </c>
@@ -18975,7 +18978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A684" s="2" t="s">
         <v>12</v>
       </c>
@@ -18998,7 +19001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A685" s="2" t="s">
         <v>7</v>
       </c>
@@ -19021,7 +19024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A686" s="2" t="s">
         <v>7</v>
       </c>
@@ -19044,7 +19047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A687" s="2" t="s">
         <v>7</v>
       </c>
@@ -19067,7 +19070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A688" s="2" t="s">
         <v>12</v>
       </c>
@@ -19090,7 +19093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A689" s="2" t="s">
         <v>12</v>
       </c>
@@ -19113,7 +19116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A690" s="2" t="s">
         <v>12</v>
       </c>
@@ -19136,7 +19139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A691" s="2" t="s">
         <v>7</v>
       </c>
@@ -19159,7 +19162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A692" s="2" t="s">
         <v>12</v>
       </c>
@@ -19182,7 +19185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A693" s="2" t="s">
         <v>7</v>
       </c>
@@ -19205,7 +19208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A694" s="2" t="s">
         <v>12</v>
       </c>
@@ -19228,7 +19231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A695" s="2" t="s">
         <v>12</v>
       </c>
@@ -19251,7 +19254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A696" s="2" t="s">
         <v>12</v>
       </c>
@@ -19274,7 +19277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A697" s="2" t="s">
         <v>12</v>
       </c>
@@ -19297,7 +19300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A698" s="2" t="s">
         <v>12</v>
       </c>
@@ -19320,7 +19323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A699" s="2" t="s">
         <v>12</v>
       </c>
@@ -19343,7 +19346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A700" s="2" t="s">
         <v>7</v>
       </c>
@@ -19366,7 +19369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A701" s="2" t="s">
         <v>7</v>
       </c>
@@ -19389,7 +19392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A702" s="2" t="s">
         <v>12</v>
       </c>
@@ -19412,7 +19415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A703" s="2" t="s">
         <v>12</v>
       </c>
@@ -19435,7 +19438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A704" s="2" t="s">
         <v>12</v>
       </c>
@@ -19458,7 +19461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A705" s="2" t="s">
         <v>12</v>
       </c>
@@ -19481,7 +19484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A706" s="2" t="s">
         <v>12</v>
       </c>
@@ -19504,7 +19507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A707" s="2" t="s">
         <v>12</v>
       </c>
@@ -19527,7 +19530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A708" s="2" t="s">
         <v>12</v>
       </c>
@@ -19550,7 +19553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A709" s="2" t="s">
         <v>12</v>
       </c>
@@ -19573,7 +19576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A710" s="2" t="s">
         <v>7</v>
       </c>
@@ -19596,7 +19599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A711" s="2" t="s">
         <v>7</v>
       </c>
@@ -19619,7 +19622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A712" s="2" t="s">
         <v>12</v>
       </c>
@@ -19642,7 +19645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A713" s="2" t="s">
         <v>12</v>
       </c>
@@ -19665,7 +19668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A714" s="2" t="s">
         <v>12</v>
       </c>
@@ -19688,7 +19691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A715" s="2" t="s">
         <v>12</v>
       </c>
@@ -19711,7 +19714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A716" s="2" t="s">
         <v>12</v>
       </c>
@@ -19734,7 +19737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A717" s="2" t="s">
         <v>12</v>
       </c>
@@ -19757,7 +19760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A718" s="2" t="s">
         <v>12</v>
       </c>
@@ -19780,7 +19783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A719" s="2" t="s">
         <v>12</v>
       </c>
@@ -19803,7 +19806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A720" s="2" t="s">
         <v>12</v>
       </c>
@@ -19826,7 +19829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A721" s="2" t="s">
         <v>12</v>
       </c>
@@ -19849,7 +19852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A722" s="2" t="s">
         <v>12</v>
       </c>
@@ -19872,7 +19875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A723" s="2" t="s">
         <v>12</v>
       </c>
@@ -19895,7 +19898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A724" s="2" t="s">
         <v>12</v>
       </c>
@@ -19918,7 +19921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A725" s="2" t="s">
         <v>12</v>
       </c>
@@ -19941,7 +19944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A726" s="2" t="s">
         <v>12</v>
       </c>
@@ -19964,7 +19967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A727" s="2" t="s">
         <v>12</v>
       </c>
@@ -19987,7 +19990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A728" s="2" t="s">
         <v>12</v>
       </c>
@@ -20010,7 +20013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A729" s="2" t="s">
         <v>12</v>
       </c>
@@ -20033,7 +20036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A730" s="2" t="s">
         <v>12</v>
       </c>
@@ -20056,7 +20059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A731" s="2" t="s">
         <v>7</v>
       </c>
@@ -20079,7 +20082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A732" s="2" t="s">
         <v>7</v>
       </c>
@@ -20102,7 +20105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A733" s="2" t="s">
         <v>7</v>
       </c>
@@ -20125,7 +20128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A734" s="2" t="s">
         <v>7</v>
       </c>
@@ -20148,7 +20151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A735" s="2" t="s">
         <v>12</v>
       </c>
@@ -20171,7 +20174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A736" s="2" t="s">
         <v>12</v>
       </c>
@@ -20194,7 +20197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A737" s="2" t="s">
         <v>12</v>
       </c>
@@ -20217,7 +20220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A738" s="2" t="s">
         <v>12</v>
       </c>
@@ -20240,7 +20243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A739" s="2" t="s">
         <v>12</v>
       </c>
@@ -20263,7 +20266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A740" s="2" t="s">
         <v>12</v>
       </c>
@@ -20286,7 +20289,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A741" s="2" t="s">
         <v>12</v>
       </c>
@@ -20309,7 +20312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A742" s="2" t="s">
         <v>12</v>
       </c>
@@ -20332,7 +20335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A743" s="2" t="s">
         <v>12</v>
       </c>
@@ -20355,7 +20358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A744" s="2" t="s">
         <v>12</v>
       </c>
@@ -20378,7 +20381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A745" s="2" t="s">
         <v>7</v>
       </c>
@@ -20401,7 +20404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A746" s="2" t="s">
         <v>7</v>
       </c>
@@ -20424,7 +20427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A747" s="2" t="s">
         <v>12</v>
       </c>
@@ -20447,7 +20450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A748" s="2" t="s">
         <v>7</v>
       </c>
@@ -20470,7 +20473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A749" s="2" t="s">
         <v>8</v>
       </c>
@@ -20493,7 +20496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A750" s="2" t="s">
         <v>8</v>
       </c>
@@ -20516,7 +20519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A751" s="2" t="s">
         <v>8</v>
       </c>
@@ -20539,7 +20542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A752" s="2" t="s">
         <v>8</v>
       </c>
@@ -20562,7 +20565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A753" s="2" t="s">
         <v>8</v>
       </c>
@@ -20585,7 +20588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A754" s="2" t="s">
         <v>8</v>
       </c>
@@ -20608,7 +20611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A755" s="2" t="s">
         <v>8</v>
       </c>
@@ -20631,7 +20634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A756" s="2" t="s">
         <v>8</v>
       </c>
@@ -20654,7 +20657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A757" s="2" t="s">
         <v>8</v>
       </c>
@@ -20677,7 +20680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A758" s="2" t="s">
         <v>8</v>
       </c>
@@ -20700,7 +20703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A759" s="2" t="s">
         <v>8</v>
       </c>
@@ -20723,7 +20726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A760" s="2" t="s">
         <v>8</v>
       </c>
@@ -20746,7 +20749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A761" s="2" t="s">
         <v>8</v>
       </c>
@@ -20769,7 +20772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A762" s="2" t="s">
         <v>8</v>
       </c>
@@ -20792,7 +20795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A763" s="2" t="s">
         <v>8</v>
       </c>
@@ -20815,7 +20818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A764" s="2" t="s">
         <v>8</v>
       </c>
@@ -20838,7 +20841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A765" s="2" t="s">
         <v>8</v>
       </c>
@@ -20861,7 +20864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A766" s="2" t="s">
         <v>8</v>
       </c>
@@ -20884,7 +20887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A767" s="2" t="s">
         <v>8</v>
       </c>
@@ -20907,7 +20910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A768" s="2" t="s">
         <v>8</v>
       </c>
@@ -20930,7 +20933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A769" s="2" t="s">
         <v>8</v>
       </c>
@@ -20953,7 +20956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A770" s="2" t="s">
         <v>8</v>
       </c>
@@ -20976,7 +20979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A771" s="2" t="s">
         <v>8</v>
       </c>
@@ -20999,7 +21002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A772" s="2" t="s">
         <v>8</v>
       </c>
@@ -21022,7 +21025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A773" s="2" t="s">
         <v>8</v>
       </c>
@@ -21045,7 +21048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A774" s="2" t="s">
         <v>8</v>
       </c>
@@ -21068,7 +21071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A775" s="2" t="s">
         <v>8</v>
       </c>
@@ -21091,7 +21094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A776" s="2" t="s">
         <v>8</v>
       </c>
@@ -21114,7 +21117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A777" s="2" t="s">
         <v>8</v>
       </c>
@@ -21137,7 +21140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A778" s="2" t="s">
         <v>8</v>
       </c>
@@ -21160,7 +21163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A779" s="2" t="s">
         <v>8</v>
       </c>
@@ -21183,7 +21186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A780" s="2" t="s">
         <v>8</v>
       </c>
@@ -21206,7 +21209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A781" s="2" t="s">
         <v>8</v>
       </c>
@@ -21229,7 +21232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A782" s="2" t="s">
         <v>8</v>
       </c>
@@ -21252,7 +21255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A783" s="2" t="s">
         <v>8</v>
       </c>
@@ -21275,7 +21278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A784" s="2" t="s">
         <v>8</v>
       </c>
@@ -21298,7 +21301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A785" s="2" t="s">
         <v>8</v>
       </c>
@@ -21321,7 +21324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A786" s="2" t="s">
         <v>8</v>
       </c>
@@ -21344,7 +21347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A787" s="2" t="s">
         <v>8</v>
       </c>
@@ -21367,7 +21370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A788" s="2" t="s">
         <v>8</v>
       </c>
@@ -21390,7 +21393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A789" s="2" t="s">
         <v>8</v>
       </c>
@@ -21413,7 +21416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A790" s="2" t="s">
         <v>8</v>
       </c>
@@ -21436,7 +21439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A791" s="2" t="s">
         <v>8</v>
       </c>
@@ -21459,7 +21462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A792" s="2" t="s">
         <v>8</v>
       </c>
@@ -21482,7 +21485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A793" s="2" t="s">
         <v>8</v>
       </c>
@@ -21505,7 +21508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A794" s="2" t="s">
         <v>8</v>
       </c>
@@ -21528,7 +21531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A795" s="2" t="s">
         <v>8</v>
       </c>
@@ -21551,7 +21554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A796" s="2" t="s">
         <v>8</v>
       </c>
@@ -21574,7 +21577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A797" s="2" t="s">
         <v>8</v>
       </c>
@@ -21597,7 +21600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A798" s="2" t="s">
         <v>8</v>
       </c>
@@ -21620,7 +21623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A799" s="2" t="s">
         <v>8</v>
       </c>
@@ -21643,7 +21646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A800" s="2" t="s">
         <v>8</v>
       </c>
@@ -21666,7 +21669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A801" s="2" t="s">
         <v>8</v>
       </c>
@@ -21689,7 +21692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A802" s="2" t="s">
         <v>8</v>
       </c>
@@ -21712,7 +21715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A803" s="2" t="s">
         <v>8</v>
       </c>
@@ -21735,7 +21738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A804" s="2" t="s">
         <v>8</v>
       </c>
@@ -21758,7 +21761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A805" s="2" t="s">
         <v>8</v>
       </c>
@@ -21781,7 +21784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A806" s="2" t="s">
         <v>8</v>
       </c>
@@ -21804,7 +21807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A807" s="2" t="s">
         <v>8</v>
       </c>
@@ -21827,7 +21830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A808" s="2" t="s">
         <v>8</v>
       </c>
@@ -21850,7 +21853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A809" s="2" t="s">
         <v>8</v>
       </c>
@@ -21873,7 +21876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A810" s="2" t="s">
         <v>8</v>
       </c>
@@ -21896,7 +21899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A811" s="2" t="s">
         <v>8</v>
       </c>
@@ -21919,7 +21922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A812" s="2" t="s">
         <v>8</v>
       </c>
@@ -21942,7 +21945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A813" s="2" t="s">
         <v>8</v>
       </c>
@@ -21965,7 +21968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A814" s="2" t="s">
         <v>8</v>
       </c>
@@ -21988,7 +21991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A815" s="2" t="s">
         <v>8</v>
       </c>
@@ -22011,7 +22014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A816" s="2" t="s">
         <v>8</v>
       </c>
@@ -22034,7 +22037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A817" s="2" t="s">
         <v>8</v>
       </c>
@@ -22057,7 +22060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A818" s="2" t="s">
         <v>8</v>
       </c>
@@ -22080,7 +22083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A819" s="2" t="s">
         <v>8</v>
       </c>
@@ -22103,7 +22106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A820" s="2" t="s">
         <v>8</v>
       </c>
@@ -22126,7 +22129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A821" s="2" t="s">
         <v>8</v>
       </c>
@@ -22149,7 +22152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A822" s="2" t="s">
         <v>8</v>
       </c>
@@ -22172,7 +22175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A823" s="2" t="s">
         <v>8</v>
       </c>
@@ -22195,7 +22198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A824" s="2" t="s">
         <v>8</v>
       </c>
@@ -22218,7 +22221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A825" s="2" t="s">
         <v>8</v>
       </c>
@@ -22241,7 +22244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A826" s="2" t="s">
         <v>8</v>
       </c>
@@ -22264,7 +22267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A827" s="2" t="s">
         <v>8</v>
       </c>
@@ -22287,7 +22290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A828" s="2" t="s">
         <v>8</v>
       </c>
@@ -22310,7 +22313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A829" s="2" t="s">
         <v>8</v>
       </c>
@@ -22333,7 +22336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A830" s="2" t="s">
         <v>8</v>
       </c>
@@ -22356,7 +22359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A831" s="2" t="s">
         <v>8</v>
       </c>
@@ -22379,7 +22382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A832" s="2" t="s">
         <v>8</v>
       </c>
@@ -22402,7 +22405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A833" s="2" t="s">
         <v>8</v>
       </c>
@@ -22425,7 +22428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A834" s="2" t="s">
         <v>8</v>
       </c>
@@ -22448,7 +22451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A835" s="2" t="s">
         <v>8</v>
       </c>
@@ -22471,7 +22474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A836" s="2" t="s">
         <v>8</v>
       </c>
@@ -22494,7 +22497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A837" s="2" t="s">
         <v>8</v>
       </c>
@@ -22517,7 +22520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A838" s="2" t="s">
         <v>8</v>
       </c>
@@ -22540,7 +22543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A839" s="2" t="s">
         <v>8</v>
       </c>
@@ -22563,7 +22566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A840" s="2" t="s">
         <v>8</v>
       </c>
@@ -22586,7 +22589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A841" s="2" t="s">
         <v>8</v>
       </c>
@@ -22609,7 +22612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A842" s="2" t="s">
         <v>8</v>
       </c>
@@ -22632,7 +22635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A843" s="2" t="s">
         <v>8</v>
       </c>
@@ -22655,7 +22658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A844" s="2" t="s">
         <v>8</v>
       </c>
@@ -22678,7 +22681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A845" s="2" t="s">
         <v>8</v>
       </c>
@@ -22701,7 +22704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A846" s="2" t="s">
         <v>8</v>
       </c>
@@ -22724,7 +22727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A847" s="2" t="s">
         <v>8</v>
       </c>
@@ -22747,7 +22750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A848" s="2" t="s">
         <v>8</v>
       </c>
@@ -22770,7 +22773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A849" s="2" t="s">
         <v>8</v>
       </c>
@@ -22793,7 +22796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A850" s="2" t="s">
         <v>8</v>
       </c>
@@ -22816,7 +22819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A851" s="2" t="s">
         <v>8</v>
       </c>
@@ -22839,7 +22842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A852" s="2" t="s">
         <v>8</v>
       </c>
@@ -22862,7 +22865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A853" s="2" t="s">
         <v>8</v>
       </c>
@@ -22885,7 +22888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A854" s="2" t="s">
         <v>8</v>
       </c>
@@ -22908,7 +22911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A855" s="2" t="s">
         <v>8</v>
       </c>
@@ -22931,7 +22934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A856" s="2" t="s">
         <v>8</v>
       </c>
@@ -22954,7 +22957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A857" s="2" t="s">
         <v>8</v>
       </c>
@@ -22977,7 +22980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A858" s="2" t="s">
         <v>8</v>
       </c>
@@ -23000,7 +23003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A859" s="2" t="s">
         <v>8</v>
       </c>
@@ -23023,7 +23026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A860" s="2" t="s">
         <v>8</v>
       </c>
@@ -23046,7 +23049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A861" s="2" t="s">
         <v>8</v>
       </c>
@@ -23069,7 +23072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A862" s="2" t="s">
         <v>8</v>
       </c>
@@ -23092,7 +23095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A863" s="2" t="s">
         <v>8</v>
       </c>
@@ -23115,7 +23118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A864" s="2" t="s">
         <v>8</v>
       </c>
@@ -23138,7 +23141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A865" s="2" t="s">
         <v>8</v>
       </c>
@@ -23161,7 +23164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A866" s="2" t="s">
         <v>8</v>
       </c>
@@ -23184,7 +23187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A867" s="2" t="s">
         <v>8</v>
       </c>
@@ -23207,7 +23210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A868" s="2" t="s">
         <v>8</v>
       </c>
@@ -23230,7 +23233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A869" s="2" t="s">
         <v>8</v>
       </c>
@@ -23253,7 +23256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A870" s="2" t="s">
         <v>8</v>
       </c>
@@ -23276,7 +23279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A871" s="2" t="s">
         <v>8</v>
       </c>
@@ -23299,7 +23302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A872" s="2" t="s">
         <v>8</v>
       </c>
@@ -23322,7 +23325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A873" s="2" t="s">
         <v>8</v>
       </c>
@@ -23345,7 +23348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A874" s="2" t="s">
         <v>8</v>
       </c>
@@ -23368,7 +23371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A875" s="2" t="s">
         <v>8</v>
       </c>
@@ -23391,7 +23394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A876" s="2" t="s">
         <v>8</v>
       </c>
@@ -23414,7 +23417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A877" s="2" t="s">
         <v>8</v>
       </c>
@@ -23437,7 +23440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="878" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A878" s="2" t="s">
         <v>8</v>
       </c>
@@ -23460,7 +23463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="879" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A879" s="2" t="s">
         <v>8</v>
       </c>
@@ -23483,7 +23486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="880" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A880" s="2" t="s">
         <v>8</v>
       </c>
@@ -23506,7 +23509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="881" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A881" s="2" t="s">
         <v>8</v>
       </c>
@@ -23529,7 +23532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="882" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A882" s="2" t="s">
         <v>8</v>
       </c>
@@ -23552,7 +23555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="883" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A883" s="2" t="s">
         <v>8</v>
       </c>
